--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/05022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/05022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 5 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
-*Oración de la mañana*
-Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
-Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
-Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
-En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>jueves, 5 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 6, 7-13 En aquel tiempo, llamó Jesús a los Doce, los envió de dos en dos y les dio poder sobre los espíritus inmundos. Les mandó que no llevaran nada para el camino: ni pan, ni mochila, ni dinero en el cinto, sino únicamente un bastón, sandalias y una sola túnica. Y les dijo: "Cuando entren en una casa, quédense en ella hasta que se vayan de ese lugar. Si en alguna parte no los reciben ni los escuchan, al abandonar ese lugar, sacúdanse el polvo de los pies, como una advertencia para ellos". Los discípulos se fueron a predicar el arrepentimiento. Expulsaban a los demonios, ungían con aceite a los enfermos y los curaban.
+*Oración de la mañana*
+Querido Jesús, guía de nuestros pasos, te agradecemos el poder y la autoridad que nos has dado para enfrentar los desafíos de este mundo. Ayúdanos a ser como los Doce, dispuestos a dejar todo atrás y confiar en tu provisión. Cuando nos encontramos con rechazo o indiferencia, enséñanos a sacudir el polvo de nuestros pies, llevándonos contigo la paz y dejando atrás cualquier rastro de amargura.
+Amado Padre, gracias por este nuevo día, por la oportunidad de ser tus manos y pies en este mundo. Ayúdanos a recordar que no necesitamos más que tu amor y tu palabra para hacer tu voluntad. Que podamos entrar en cada situación con humildad, buscando servir en lugar de ser servidos.
+Espíritu Santo, ungidor de almas, te pedimos que nos guíes en nuestro camino hacia la santidad. Inspíranos para que podamos llevar el mensaje de arrepentimiento y gracia a los que están perdidos. Con tu unción, podemos traer sanación y esperanza a los enfermos y afligidos.
+En la santidad de la Trinidad, comenzamos nuestro día, confiando en tu amor, tu poder y tu guía. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>